--- a/excel/2282fb_P2_page_2.xlsx
+++ b/excel/2282fb_P2_page_2.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AINA+</t>
+          <t>AINA+ 1</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AINA–</t>
+          <t>AINA– 2</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>REFHA</t>
+          <t>REFHA 3</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>REFLA</t>
+          <t>REFHA 4</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>REFLA</t>
+          <t>REFLA 5</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VDD</t>
+          <t>VDD 7</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VDD</t>
+          <t>VDD 7</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLKA</t>
+          <t>CLKA 8</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLKB</t>
+          <t>CLKB 9</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VDD</t>
+          <t>VDD 10</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VDD</t>
+          <t>REFLB 11</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>REFLB</t>
+          <t>REFLB 12</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>REFHB</t>
+          <t>REFHB 13</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AINB–</t>
+          <t>REFHB 14</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AINB+</t>
+          <t>AINB– 15</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AINB+</t>
+          <t>AINB+ 16</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>GND 17</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VDD</t>
+          <t>VDD 18</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VCMB</t>
+          <t>VDD 18</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VCMB</t>
+          <t>VCMB 20</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MUX</t>
+          <t>MUX 21</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OEB</t>
+          <t>OEB 23</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>OEB</t>
+          <t>OEB 23</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>NC 24</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>NC 25</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DB0</t>
+          <t>DB0 26</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DB1</t>
+          <t>DB1 27</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DB2</t>
+          <t>DB2 28</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DB3</t>
+          <t>DB3 29</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DB4</t>
+          <t>DB4 30</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>OGND</t>
+          <t>OGND 31</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>OVDD</t>
+          <t>OVDD 32</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DB5</t>
+          <t>33 DB5</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DB6</t>
+          <t>34 DB6</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DB7</t>
+          <t>35 DB7</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DB8</t>
+          <t>36 DB8</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DB9</t>
+          <t>37 DB9</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DB10</t>
+          <t>37 DB9</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DB11</t>
+          <t>39 DB11</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>OFB</t>
+          <t xml:space="preserve">40 OFB </t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>41 NC</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>42 NC</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DA0</t>
+          <t>43 DA0</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DA1</t>
+          <t xml:space="preserve">44 DA1 </t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DA2</t>
+          <t>45 DA2</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DA3</t>
+          <t>46 DA3</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DA4</t>
+          <t xml:space="preserve">47 DA4 </t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DA5</t>
+          <t xml:space="preserve">48 DA5 </t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>OVDD</t>
+          <t>49 OVDD</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>OVDD</t>
+          <t>50 OGND</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DA6</t>
+          <t>51 DA6</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DA7</t>
+          <t>52 DA7</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DA8</t>
+          <t>53 DA8</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DA9</t>
+          <t>54 DA9</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DA9</t>
+          <t>55 DA10</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DA11</t>
+          <t>56 DA11</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>OFA</t>
+          <t>57 OFA</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>OEA</t>
+          <t>58 OEA</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>OEA</t>
+          <t>59 SHDNA</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MODE</t>
+          <t>60 MODE</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VCMA</t>
+          <t>61 VCMA</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>VDD</t>
+          <t>62 SENSEA</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>VDD</t>
+          <t>63 VDD</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>64 GND</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>OFA</t>
+          <t>57 OFA</t>
         </is>
       </c>
     </row>
